--- a/tsp结果表头.xlsx
+++ b/tsp结果表头.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naiquh/box.nju/Seafile/teaching/2025离散优化算法/2025-课件-离散优化算法/copt_gurobi_cplex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NJU\Projects\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848128C-813A-6544-9D26-AD74A57620F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA384929-A48F-4B64-BD92-131F257435A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="4800" windowWidth="28240" windowHeight="17440" xr2:uid="{1F621E1B-0013-FB40-BA1E-B470E5CCCC83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F621E1B-0013-FB40-BA1E-B470E5CCCC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>算例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,15 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u1060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subtour elimination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,15 +101,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(说明采用了什么高级功能，比如xx callback）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPU型号主频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apple M4</t>
+    <t>1. Callback: 只有找到合法子环，才添加lazy constraint把该子环排除；放弃在硬约束中排除所有子环
+2. 求最短子环的函数不会找到对称子环，以破解对称性
+3.在Gurobi求解之前使用最近邻算法生成初始可行路径，并设置为初始解
+4.参数调优：
+model.setParam("MIPFocus", 1)
+            model.setParam("ImproveStartTime", 5)
+            model.setParam("ImproveStartNodes", 100)
+            model.setParam("Cuts", 1)
+            model.setParam("Heuristics", 0.8)
+            model.setParam("Presolve", 1)
+            model.setParam("Threads", 8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11th Gen Intel(R) Core(TM) i5-1155G7 @ 2.50GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtour Elimination Formulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Callback: 只有找到合法子环，才添加lazy constraint把该子环排除；放弃在硬约束中排除所有子环
+2. 参数调优：
+model.setParam(COPT.Param.HeurLevel, 3)
+        model.setParam(COPT.Param.Threads, 8)
+        model.setParam(COPT.Param.Presolve, 2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,12 +197,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,16 +523,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902200E-5C89-164B-9530-850F7BA4D82E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="4" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
+    <col min="8" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -536,85 +542,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="234">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>600</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="F2">
+        <v>48834</v>
+      </c>
+      <c r="G2">
+        <v>48910</v>
+      </c>
+      <c r="H2">
+        <v>0.15538744632999299</v>
+      </c>
+      <c r="I2">
+        <v>600.04800009727398</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="127.2" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3">
         <v>600</v>
       </c>
+      <c r="F3">
+        <v>47113</v>
+      </c>
+      <c r="G3">
+        <v>47113</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>32.058999999999997</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="234">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>600</v>
+      </c>
+      <c r="F4">
+        <v>6771</v>
+      </c>
+      <c r="G4">
+        <v>6773</v>
+      </c>
+      <c r="H4">
+        <v>2.9529012254540001E-2</v>
+      </c>
+      <c r="I4">
+        <v>600.03299999237004</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="109.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+      <c r="F5">
+        <v>6685</v>
+      </c>
+      <c r="G5">
+        <v>6685</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>26.873998641966999</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="234">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>214023</v>
+      </c>
+      <c r="G6">
+        <v>260179</v>
+      </c>
+      <c r="H6">
+        <v>17.74009431967</v>
+      </c>
+      <c r="I6">
+        <v>600.15099999999995</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="109.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <v>210931</v>
+      </c>
+      <c r="G7">
+        <v>210931</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>400.7789932</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tsp结果表头.xlsx
+++ b/tsp结果表头.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NJU\Projects\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA384929-A48F-4B64-BD92-131F257435A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D951DA84-4F71-4962-BA3D-D4C373BC38D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F621E1B-0013-FB40-BA1E-B470E5CCCC83}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="6216" xr2:uid="{1F621E1B-0013-FB40-BA1E-B470E5CCCC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,9 @@
   </si>
   <si>
     <t>1. Callback: 只有找到合法子环，才添加lazy constraint把该子环排除；放弃在硬约束中排除所有子环
-2. 参数调优：
+2. 求最短子环的函数不会找到对称子环，以破解对称性
+3.在Gurobi求解之前使用最近邻算法生成初始可行路径，并设置为初始解
+4. 参数调优：
 model.setParam(COPT.Param.HeurLevel, 3)
         model.setParam(COPT.Param.Threads, 8)
         model.setParam(COPT.Param.Presolve, 2)</t>
@@ -523,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902200E-5C89-164B-9530-850F7BA4D82E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -569,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="234">
+    <row r="2" spans="1:10" ht="250.95" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -586,7 +588,7 @@
         <v>600</v>
       </c>
       <c r="F2">
-        <v>48834</v>
+        <v>48832</v>
       </c>
       <c r="G2">
         <v>48910</v>
@@ -601,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="127.2" customHeight="1">
+    <row r="3" spans="1:10" ht="250.95" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -618,22 +620,22 @@
         <v>600</v>
       </c>
       <c r="F3">
-        <v>47113</v>
+        <v>47721.110999999997</v>
       </c>
       <c r="G3">
-        <v>47113</v>
+        <v>59714</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>20.083881315749998</v>
       </c>
       <c r="I3">
-        <v>32.058999999999997</v>
+        <v>600.17999999999995</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="234">
+    <row r="4" spans="1:10" ht="250.95" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,22 +652,22 @@
         <v>600</v>
       </c>
       <c r="F4">
-        <v>6771</v>
+        <v>6770</v>
       </c>
       <c r="G4">
         <v>6773</v>
       </c>
       <c r="H4">
-        <v>2.9529012254540001E-2</v>
+        <v>4.4293158300000003E-2</v>
       </c>
       <c r="I4">
-        <v>600.03299999237004</v>
+        <v>600.04200000000003</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="109.2">
+    <row r="5" spans="1:10" ht="250.95" customHeight="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -682,22 +684,22 @@
         <v>600</v>
       </c>
       <c r="F5">
-        <v>6685</v>
+        <v>6761</v>
       </c>
       <c r="G5">
-        <v>6685</v>
+        <v>8536</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>20.783193700000002</v>
       </c>
       <c r="I5">
-        <v>26.873998641966999</v>
+        <v>600.33000000000004</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="234">
+    <row r="6" spans="1:10" ht="250.95" customHeight="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -723,13 +725,13 @@
         <v>17.74009431967</v>
       </c>
       <c r="I6">
-        <v>600.15099999999995</v>
+        <v>600.09</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="109.2">
+    <row r="7" spans="1:10" ht="250.95" customHeight="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -746,16 +748,16 @@
         <v>600</v>
       </c>
       <c r="F7">
-        <v>210931</v>
+        <v>211007.25</v>
       </c>
       <c r="G7">
-        <v>210931</v>
+        <v>305404</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30.9088125</v>
       </c>
       <c r="I7">
-        <v>400.7789932</v>
+        <v>600.9</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>18</v>

--- a/tsp结果表头.xlsx
+++ b/tsp结果表头.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NJU\Projects\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D951DA84-4F71-4962-BA3D-D4C373BC38D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C43848-8236-4EA7-95FC-6167192B49B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="6216" xr2:uid="{1F621E1B-0013-FB40-BA1E-B470E5CCCC83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F621E1B-0013-FB40-BA1E-B470E5CCCC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
   <si>
     <t>1. Callback: 只有找到合法子环，才添加lazy constraint把该子环排除；放弃在硬约束中排除所有子环
 2. 求最短子环的函数不会找到对称子环，以破解对称性
-3.在Gurobi求解之前使用最近邻算法生成初始可行路径，并设置为初始解
+3.在COPT求解之前使用最近邻算法生成初始可行路径，并设置为初始解
 4. 参数调优：
 model.setParam(COPT.Param.HeurLevel, 3)
         model.setParam(COPT.Param.Threads, 8)
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902200E-5C89-164B-9530-850F7BA4D82E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
